--- a/团员档案转出.xlsx
+++ b/团员档案转出.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test\lemon81\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9438F26-7599-4239-9817-08EA3E5D23C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE919980-EF1D-4709-8B17-93BA230030F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -716,7 +716,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
@@ -755,7 +755,9 @@
     <row r="2" spans="1:11">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
       <c r="D2" s="5"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -769,7 +771,9 @@
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="D3" s="6">
+        <v>2</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
